--- a/results_current/patients_online_results.xlsx
+++ b/results_current/patients_online_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\neurorobotics_prj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\neurorobotics_prj\results_current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B6E3F6-EC01-432C-943E-CB5CFC91BDF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E86C9E4-42D8-4EB4-AEEB-1E31578A4FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,10 +143,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutrale" xfId="1" builtinId="28"/>
@@ -465,7 +467,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B2" sqref="B2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -491,13 +493,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>67.569995508309631</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>69.443535188216046</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>65.990618101545252</v>
       </c>
     </row>
@@ -505,13 +507,13 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>76.334823242584321</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>75.645819170632222</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>76.966204641021648</v>
       </c>
     </row>
@@ -519,13 +521,13 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>71.616910002179125</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>62.522594898574013</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>82.40057156465825</v>
       </c>
     </row>
@@ -533,13 +535,13 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>74.311308033134267</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>76.533457249070636</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>72.737742678512674</v>
       </c>
     </row>
@@ -547,13 +549,13 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>77.039177906229924</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>70.519001701644925</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>85.547742413027393</v>
       </c>
     </row>
@@ -561,13 +563,13 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>70.81101759755164</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>76.571216065451836</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>65.959279561472201</v>
       </c>
     </row>
@@ -575,13 +577,13 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>59.584932821497119</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>32.479627473806751</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>83.022033329605193</v>
       </c>
     </row>
@@ -589,13 +591,13 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>68.481884863302952</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>53.835764451647755</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>78.719788519637461</v>
       </c>
     </row>
@@ -603,13 +605,13 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>70.718756246848628</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>64.693877024880521</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>76.417997601185021</v>
       </c>
     </row>
@@ -623,7 +625,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -672,22 +674,26 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>80.833333333333329</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
         <v>88.9908256880734</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
         <v>74.166666666666671</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>81.651376146788991</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>53.333333333333336</v>
       </c>
-      <c r="K2">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
         <v>58.715596330275233</v>
       </c>
     </row>
@@ -695,22 +701,26 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>93.333333333333329</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <v>93.333333333333329</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>93.333333333333329</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <v>95.726495726495727</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>76.666666666666671</v>
       </c>
-      <c r="K3">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
         <v>85.981308411214954</v>
       </c>
     </row>
@@ -718,22 +728,26 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>84.166666666666671</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
         <v>84.166666666666671</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>90</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>90</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>79.166666666666657</v>
       </c>
-      <c r="K4">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <v>81.896551724137936</v>
       </c>
     </row>
@@ -741,22 +755,26 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>82.5</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>86.842105263157904</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
         <v>85.833333333333329</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <v>85.833333333333329</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>81.666666666666671</v>
       </c>
-      <c r="K5">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
         <v>85.217391304347828</v>
       </c>
     </row>
@@ -764,22 +782,26 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>95.833333333333343</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>98.290598290598282</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
         <v>98.333333333333329</v>
       </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>100</v>
+      </c>
+      <c r="I6" s="3">
         <v>81.666666666666671</v>
       </c>
-      <c r="K6">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
         <v>87.5</v>
       </c>
     </row>
@@ -787,22 +809,26 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>75</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>78.94736842105263</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
         <v>70.833333333333343</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>76.576576576576571</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>66.666666666666657</v>
       </c>
-      <c r="K7">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
         <v>76.923076923076934</v>
       </c>
     </row>
@@ -810,22 +836,26 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>55.833333333333336</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>57.758620689655174</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>57.499999999999993</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <v>58.474576271186443</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>52.5</v>
       </c>
-      <c r="K8">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
         <v>56.25</v>
       </c>
     </row>
@@ -833,22 +863,26 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>65.833333333333329</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
         <v>84.042553191489361</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <v>64.166666666666671</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <v>89.534883720930239</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>49.166666666666664</v>
       </c>
-      <c r="K9">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
         <v>71.084337349397586</v>
       </c>
     </row>
@@ -856,26 +890,26 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>79.166666666666671</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>84.046508943003346</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>79.270833333333329</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
         <v>84.72465522191392</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <v>67.604166666666657</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <v>75.446032755306319</v>
       </c>
     </row>
@@ -893,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -943,22 +977,26 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>95</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
         <v>95</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
         <v>95</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>95</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>75</v>
       </c>
-      <c r="K2">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
         <v>78.94736842105263</v>
       </c>
     </row>
@@ -966,22 +1004,26 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>95</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <v>95</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>95</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <v>95</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>85</v>
       </c>
-      <c r="K3">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
         <v>89.473684210526315</v>
       </c>
     </row>
@@ -989,22 +1031,26 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>90</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
         <v>90</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>90</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>90</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>80</v>
       </c>
-      <c r="K4">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <v>88.888888888888886</v>
       </c>
     </row>
@@ -1012,22 +1058,26 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
+      <c r="B5" s="3">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>100</v>
+      </c>
+      <c r="I5" s="3">
         <v>95</v>
       </c>
-      <c r="K5">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
         <v>95</v>
       </c>
     </row>
@@ -1035,22 +1085,26 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>100</v>
+      </c>
+      <c r="I6" s="3">
         <v>90</v>
       </c>
-      <c r="K6">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
         <v>94.73684210526315</v>
       </c>
     </row>
@@ -1058,22 +1112,26 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>95</v>
       </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>100</v>
+      </c>
+      <c r="I7" s="3">
         <v>90</v>
       </c>
-      <c r="K7">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
         <v>94.73684210526315</v>
       </c>
     </row>
@@ -1081,22 +1139,26 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>95</v>
       </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="F8">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>95</v>
       </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>75</v>
       </c>
-      <c r="K8">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
         <v>75</v>
       </c>
     </row>
@@ -1104,22 +1166,26 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9">
+      <c r="B9" s="3">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>95</v>
       </c>
-      <c r="K9">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
     </row>
@@ -1127,26 +1193,26 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>96.25</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>97.5</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>96.875</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
         <v>97.5</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <v>85.625</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <v>89.597953216374265</v>
       </c>
     </row>
@@ -1157,6 +1223,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1164,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1214,22 +1281,26 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>75</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
         <v>82.417582417582409</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
         <v>67</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>87.012987012987011</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>56.999999999999993</v>
       </c>
-      <c r="K2">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
         <v>63.333333333333329</v>
       </c>
     </row>
@@ -1237,22 +1308,26 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>93</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <v>93</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>95</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <v>95</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>78</v>
       </c>
-      <c r="K3">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
         <v>81.25</v>
       </c>
     </row>
@@ -1260,22 +1335,26 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>88</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
         <v>88</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>91</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>91</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>81</v>
       </c>
-      <c r="K4">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <v>82.653061224489804</v>
       </c>
     </row>
@@ -1283,22 +1362,26 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>93</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>93</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
         <v>87</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <v>87</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>79</v>
       </c>
-      <c r="K5">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
         <v>79</v>
       </c>
     </row>
@@ -1306,22 +1389,26 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>94</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>94</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
         <v>93</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>93</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>81</v>
       </c>
-      <c r="K6">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
         <v>87.096774193548384</v>
       </c>
     </row>
@@ -1329,22 +1416,26 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>74</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>77.083333333333343</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
         <v>74</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>79.569892473118273</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>64</v>
       </c>
-      <c r="K7">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
         <v>66.666666666666657</v>
       </c>
     </row>
@@ -1352,22 +1443,26 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>52</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>67.532467532467535</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>52</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <v>66.666666666666657</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>50</v>
       </c>
-      <c r="K8">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
         <v>57.47126436781609</v>
       </c>
     </row>
@@ -1375,22 +1470,26 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>56.999999999999993</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
         <v>85.074626865671647</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <v>57.999999999999993</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <v>87.878787878787875</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>45</v>
       </c>
-      <c r="K9">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
         <v>67.164179104477611</v>
       </c>
     </row>
@@ -1398,26 +1497,26 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>78.25</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>85.01350126863187</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>77.125</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
         <v>85.891041753944975</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <v>66.875</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <v>73.079409861291481</v>
       </c>
     </row>
